--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17568" windowHeight="6288" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17568" windowHeight="6288"/>
   </bookViews>
   <sheets>
     <sheet name="Гугл_1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
   <si>
     <t>Компания</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Что-то</t>
+  </si>
+  <si>
+    <t>Товар2</t>
+  </si>
+  <si>
+    <t>Продавец3</t>
   </si>
 </sst>
 </file>
@@ -351,9 +357,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -434,7 +442,7 @@
         <v>45803</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -449,6 +457,32 @@
         <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45804</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -465,7 +499,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -547,7 +581,7 @@
         <v>45803</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -577,8 +611,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
   <si>
     <t>Компания</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Продавец3</t>
+  </si>
+  <si>
+    <t>Товар3</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,146 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45802</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45803</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45804</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -468,10 +610,10 @@
         <v>45804</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
         <v>12</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -480,122 +622,9 @@
         <v>15</v>
       </c>
       <c r="G7" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
-        <v>45802</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1">
-        <v>50</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45803</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>Компания</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Товар3</t>
+  </si>
+  <si>
+    <t>Продавец4</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -486,6 +489,32 @@
         <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45805</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -510,7 +539,7 @@
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -526,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -552,7 +581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -576,7 +605,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,27 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grey\Desktop\buyDashBack\buyDash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\buyDash\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14D512C-5C18-451B-A4F1-06BF6FA9D778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17568" windowHeight="6288"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="877" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Гугл_1" sheetId="1" r:id="rId1"/>
     <sheet name="Гугл_2" sheetId="2" r:id="rId2"/>
-    <sheet name="Хуюгл_1" sheetId="3" r:id="rId3"/>
+    <sheet name="Амазон_2" sheetId="3" r:id="rId3"/>
+    <sheet name="Амазон_1" sheetId="13" r:id="rId4"/>
+    <sheet name="Амазон_3" sheetId="11" r:id="rId5"/>
+    <sheet name="Сяоми_2" sheetId="4" r:id="rId6"/>
+    <sheet name="Сяоми_1" sheetId="23" r:id="rId7"/>
+    <sheet name="Сяоми_3" sheetId="5" r:id="rId8"/>
+    <sheet name="Амазон_4" sheetId="6" r:id="rId9"/>
+    <sheet name="Гугл_4" sheetId="14" r:id="rId10"/>
+    <sheet name="Гугл_3" sheetId="7" r:id="rId11"/>
+    <sheet name="Амазон_5" sheetId="15" r:id="rId12"/>
+    <sheet name="Сяоми_5" sheetId="10" r:id="rId13"/>
+    <sheet name="Гугл_5" sheetId="8" r:id="rId14"/>
+    <sheet name="Амазон_6" sheetId="17" r:id="rId15"/>
+    <sheet name="Сяоми_6" sheetId="18" r:id="rId16"/>
+    <sheet name="Гугл_6" sheetId="19" r:id="rId17"/>
+    <sheet name="Амазон_7" sheetId="20" r:id="rId18"/>
+    <sheet name="Сяоми_7" sheetId="21" r:id="rId19"/>
+    <sheet name="Гугл_7" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="22">
   <si>
     <t>Компания</t>
   </si>
@@ -83,13 +101,16 @@
     <t>Товар3</t>
   </si>
   <si>
-    <t>Продавец4</t>
+    <t>Амазон</t>
+  </si>
+  <si>
+    <t>Сяоми</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
   </numFmts>
@@ -359,14 +380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -387,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -421,7 +442,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>45802</v>
+        <v>45682</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -445,7 +466,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>45803</v>
+        <v>45683</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -471,7 +492,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="3">
-        <v>45804</v>
+        <v>45684</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -492,29 +513,1073 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DB132C-7F81-49F1-A9AF-BC19D7A55DEC}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45772</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45773</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F7D427-C769-4AD1-9076-C134F3420252}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45741</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45742</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD39B889-2CA6-4227-834A-BCC90D66522A}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3">
-        <v>45805</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45802</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>70</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45803</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4F5833-BC7B-433C-ACE9-EC0764674EBD}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45802</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45803</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2247C408-CCEB-47F1-999B-CF52A6D4BC89}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="B5" s="3">
+        <v>45802</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45803</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AD921B-AB0E-4352-AD70-0EE0A3CF4CF9}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45833</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>70</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5749CEF9-6F46-4D05-864A-0B158FF96386}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45833</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90F8542-0046-4483-A705-2DC943C4ED50}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45833</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45834</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61923B3E-B533-4231-A84E-342AFF93B3FD}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45863</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45864</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7282226-9FA9-4755-96C2-24DF8264378D}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45863</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45864</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -524,14 +1589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -552,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -586,7 +1651,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>45802</v>
+        <v>45713</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -610,7 +1675,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>45803</v>
+        <v>45714</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -636,7 +1701,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="3">
-        <v>45804</v>
+        <v>45715</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -654,6 +1719,113 @@
         <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1A7C53-4569-4C99-9F73-B870EF84415B}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45863</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45864</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -663,14 +1835,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -683,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -691,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -725,13 +1897,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>45802</v>
+        <v>45713</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -740,7 +1912,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="1">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -749,7 +1921,678 @@
         <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>45803</v>
+        <v>45714</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235580DD-B142-4448-A9D4-63CDA4C04B76}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45682</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45683</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45684</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D846097-1878-4DF6-ADF7-E4DAF0C67AD9}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45741</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45742</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B1DB7B-9CF1-42DE-AF7D-0B235D4D0ED8}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45713</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45714</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F7317E-A599-4372-960A-CD17EF3309BA}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45682</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45683</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A82BB5-D976-488E-812A-DC2B0C139624}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45741</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>60</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45742</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8187384A-3C40-4333-ADAC-F0E61170666A}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45772</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45773</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
